--- a/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,24; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,18; 0,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 8,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 10,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 6,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 10,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 5,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,12; 2,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,37; 7,54</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>531,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>526,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>219,83%</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>-38,3; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,7; 1544,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 2,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 3,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,21; 3,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 3,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 3,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,27; 2,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 3,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 3,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,9%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,85%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,85; 228,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,96; 345,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,89; 368,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,05; 236,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,12; 217,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 238,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,21; 165,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 205,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,77; 207,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 2,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 2,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 4,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 2,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 2,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,79; 1,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,66; 167,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,49; 124,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,7; 147,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,05; 138,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,44; 147,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,24; 58,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,7; 119,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 103,92</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,77; 69,88</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 4,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 2,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 5,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,94; 3,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 4,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 2,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,23; 3,3</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 3,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,0; 3,08</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,31%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,16%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,75%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 272,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,86; 195,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,4; 342,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,11; 118,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 143,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,0; 75,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,94; 126,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 125,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,62; 120,42</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 2,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 2,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 1,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 2,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 2,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,3; 6,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 2,08</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 1,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 3,61</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,69%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,7; 115,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,63; 102,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,83; 68,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,03; 73,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,05; 49,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 145,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,53; 60,58</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,06; 49,97</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,8; 101,2</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,14</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 1,87</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 1,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,91</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,42; 2,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,67</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 1,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,47; 1,74</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,46; 2,02</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,72%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,58%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,84; 94,11</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,24; 73,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,05; 98,41</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,61; 75,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,21; 70,27</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 76,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,32; 69,79</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,65; 61,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,55; 65,64</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,67</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 5,09</t>
+          <t>-1,03; 1,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,98</t>
+          <t>-0,59; 2,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 8,24</t>
+          <t>-0,12; 3,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 10,54</t>
+          <t>0,57; 4,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 6,15</t>
+          <t>-0,28; 3,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 10,31</t>
+          <t>0,46; 4,01</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 5,99</t>
+          <t>0,25; 2,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,75</t>
+          <t>-0,01; 2,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 7,54</t>
+          <t>0,53; 3,31</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>23,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-66,68%</t>
+          <t>57,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>531,28%</t>
+          <t>107,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>152,15%</t>
+          <t>66,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>526,46%</t>
+          <t>99,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>167,73%</t>
+          <t>69,99%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,59%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>219,83%</t>
+          <t>97,02%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,85; 169,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,42; 252,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,76; 315,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,77; 293,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,51; 233,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,86; 282,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,3; —</t>
+          <t>7,46; 175,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,43; 162,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 1544,25</t>
+          <t>20,71; 222,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,17</t>
+          <t>-0,45; 2,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 3,36</t>
+          <t>-1,12; 2,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,79</t>
+          <t>-1,41; 2,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,8</t>
+          <t>0,19; 4,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,58</t>
+          <t>0,29; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,61</t>
+          <t>-1,81; 1,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 2,51</t>
+          <t>0,34; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,13; 3,06</t>
+          <t>0,01; 2,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,06</t>
+          <t>-1,32; 1,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>48,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,96%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>77,39%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>66,35%</t>
+          <t>-1,8%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,14%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>41,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>76,85%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,85; 228,69</t>
+          <t>-14,66; 167,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 345,42</t>
+          <t>-37,49; 124,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 368,14</t>
+          <t>-49,18; 120,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 236,25</t>
+          <t>4,05; 138,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 217,23</t>
+          <t>4,44; 147,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 238,07</t>
+          <t>-37,89; 56,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 165,3</t>
+          <t>8,7; 119,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 205,39</t>
+          <t>-0,99; 103,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 207,2</t>
+          <t>-37,81; 57,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>1,02</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,66</t>
+          <t>0,04; 4,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,03</t>
+          <t>-0,82; 2,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,44</t>
+          <t>0,5; 5,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,12</t>
+          <t>-0,94; 3,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,21</t>
+          <t>0,13; 4,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,6</t>
+          <t>-3,45; 1,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,92</t>
+          <t>0,23; 3,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,51</t>
+          <t>0,25; 3,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,63</t>
+          <t>-0,75; 2,66</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>87,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>108,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>59,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-5,48%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,47%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>53,49%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>31,4%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 167,44</t>
+          <t>-4,6; 272,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 124,0</t>
+          <t>-28,86; 195,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,7; 147,77</t>
+          <t>7,75; 357,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 138,95</t>
+          <t>-19,11; 118,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 147,79</t>
+          <t>0,53; 143,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 58,23</t>
+          <t>-57,44; 55,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,7; 119,85</t>
+          <t>3,94; 126,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 103,92</t>
+          <t>5,99; 125,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 69,88</t>
+          <t>-17,5; 100,41</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,36</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>6,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>3,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,03</t>
+          <t>-1,08; 2,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,62</t>
+          <t>-1,04; 2,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 5,03</t>
+          <t>-1,72; 1,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,75</t>
+          <t>-1,2; 2,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,76</t>
+          <t>-2,0; 2,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,54</t>
+          <t>0,01; 28,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,3</t>
+          <t>-0,65; 2,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,21</t>
+          <t>-1,02; 1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,08</t>
+          <t>-0,06; 15,71</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>87,31%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>21,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>106,3%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>31,48%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>59,16%</t>
+          <t>-1,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>133,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>50,3%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>90,15%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 272,36</t>
+          <t>-29,7; 115,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 195,68</t>
+          <t>-28,63; 102,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 342,48</t>
+          <t>-46,18; 74,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 118,79</t>
+          <t>-21,03; 73,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 143,66</t>
+          <t>-33,05; 49,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-37,0; 75,99</t>
+          <t>0,29; 572,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,94; 126,58</t>
+          <t>-14,53; 60,58</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 125,49</t>
+          <t>-22,06; 49,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 120,42</t>
+          <t>-1,31; 430,74</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,45</t>
+          <t>0,18; 1,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,31</t>
+          <t>-0,06; 1,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,54</t>
+          <t>-0,1; 1,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,84</t>
+          <t>0,59; 2,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,01</t>
+          <t>0,42; 2,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,2</t>
+          <t>0,3; 10,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,08</t>
+          <t>0,63; 1,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,74</t>
+          <t>0,47; 1,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,61</t>
+          <t>0,44; 6,25</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,56%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>41,55%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,69%</t>
+          <t>52,11%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 115,14</t>
+          <t>6,84; 94,11</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 102,16</t>
+          <t>-3,24; 73,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 68,88</t>
+          <t>-3,77; 94,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 73,84</t>
+          <t>12,61; 75,44</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 49,89</t>
+          <t>9,21; 70,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 145,34</t>
+          <t>7,34; 263,24</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 60,58</t>
+          <t>18,32; 69,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 49,97</t>
+          <t>13,65; 61,64</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 101,2</t>
+          <t>13,49; 180,49</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,02</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>1,59</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,31</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 1,87</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 1,49</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 1,91</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 2,64</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 2,45</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 2,67</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 1,99</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 1,74</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 2,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>42,83%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>28,61%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>40,72%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>40,67%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>37,27%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>29,12%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>41,55%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>34,27%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>34,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 94,11</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 73,57</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 98,41</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>12,61; 75,44</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 70,27</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 76,77</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>18,32; 69,79</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>13,65; 61,64</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>12,55; 65,64</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,76</t>
+          <t>-1,07; 1,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,68</t>
+          <t>-0,47; 2,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,76</t>
+          <t>-0,25; 3,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 4,3</t>
+          <t>0,55; 4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,38</t>
+          <t>-0,54; 3,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,01</t>
+          <t>0,47; 4,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,57</t>
+          <t>0,25; 2,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,36</t>
+          <t>0,14; 2,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,31</t>
+          <t>0,61; 3,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 169,86</t>
+          <t>-46,68; 171,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 252,13</t>
+          <t>-23,58; 236,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 315,87</t>
+          <t>-13,41; 321,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 293,22</t>
+          <t>13,55; 301,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 233,55</t>
+          <t>-22,21; 216,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 282,23</t>
+          <t>12,46; 300,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,46; 175,6</t>
+          <t>8,2; 187,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 162,38</t>
+          <t>4,51; 163,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,71; 222,18</t>
+          <t>21,42; 215,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,66</t>
+          <t>-0,6; 2,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,03</t>
+          <t>-1,1; 1,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 2,17</t>
+          <t>-1,56; 2,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 4,12</t>
+          <t>-0,03; 3,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,21</t>
+          <t>0,19; 4,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,55</t>
+          <t>-1,66; 1,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,92</t>
+          <t>0,31; 2,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,51</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,41</t>
+          <t>-1,24; 1,38</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 167,44</t>
+          <t>-20,13; 167,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,49; 124,0</t>
+          <t>-36,4; 106,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 120,12</t>
+          <t>-49,75; 126,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 138,95</t>
+          <t>-2,09; 139,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 147,79</t>
+          <t>1,22; 140,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,89; 56,66</t>
+          <t>-36,04; 60,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,7; 119,85</t>
+          <t>6,95; 114,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 103,92</t>
+          <t>-1,24; 97,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 57,01</t>
+          <t>-34,53; 54,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 4,03</t>
+          <t>0,11; 4,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 2,62</t>
+          <t>-1,01; 2,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,14</t>
+          <t>0,43; 4,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 3,75</t>
+          <t>-1,11; 3,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,76</t>
+          <t>0,14; 5,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 1,87</t>
+          <t>-3,4; 1,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,3</t>
+          <t>0,14; 3,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,21</t>
+          <t>0,19; 3,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 2,66</t>
+          <t>-0,96; 2,54</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 272,36</t>
+          <t>-1,68; 320,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 195,68</t>
+          <t>-34,29; 176,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,75; 357,03</t>
+          <t>7,32; 343,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 118,79</t>
+          <t>-21,57; 109,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,53; 143,66</t>
+          <t>-1,11; 156,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-57,44; 55,5</t>
+          <t>-59,14; 53,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 126,58</t>
+          <t>2,98; 125,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,99; 125,49</t>
+          <t>4,59; 119,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 100,41</t>
+          <t>-20,93; 95,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,45</t>
+          <t>-1,0; 2,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 2,31</t>
+          <t>-0,97; 2,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,67</t>
+          <t>-1,76; 1,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,84</t>
+          <t>-1,45; 2,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 2,01</t>
+          <t>-2,07; 1,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 28,6</t>
+          <t>-0,06; 23,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,08</t>
+          <t>-0,55; 2,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,74</t>
+          <t>-0,99; 1,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 15,71</t>
+          <t>-0,09; 16,38</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-29,7; 115,14</t>
+          <t>-27,09; 108,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 102,16</t>
+          <t>-27,95; 100,92</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 74,47</t>
+          <t>-46,39; 81,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 73,84</t>
+          <t>-23,71; 65,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 49,89</t>
+          <t>-35,44; 43,17</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,29; 572,34</t>
+          <t>-1,6; 539,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 60,58</t>
+          <t>-12,9; 60,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 49,97</t>
+          <t>-21,82; 45,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 430,74</t>
+          <t>-2,99; 475,31</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,87</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,49</t>
+          <t>-0,25; 1,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,89</t>
+          <t>-0,16; 1,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,64</t>
+          <t>0,62; 2,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,45</t>
+          <t>0,52; 2,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,28</t>
+          <t>0,25; 8,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1,99</t>
+          <t>0,65; 1,98</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,47; 1,74</t>
+          <t>0,42; 1,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,25</t>
+          <t>0,43; 5,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>6,84; 94,11</t>
+          <t>7,65; 96,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 73,57</t>
+          <t>-10,18; 68,55</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 94,63</t>
+          <t>-6,43; 91,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>12,61; 75,44</t>
+          <t>14,64; 80,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>9,21; 70,27</t>
+          <t>11,81; 75,47</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>7,34; 263,24</t>
+          <t>5,96; 253,6</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>18,32; 69,79</t>
+          <t>19,21; 69,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>13,65; 61,64</t>
+          <t>11,56; 59,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>13,49; 180,49</t>
+          <t>12,63; 164,9</t>
         </is>
       </c>
     </row>
